--- a/Warehouse/DE/judgement_logs_run4o.xlsx
+++ b/Warehouse/DE/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the assembly on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been confirmed.
+MSG: The decision is to acquire the rights to "Oppenheimer."
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the event on Friday.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer."
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -594,13 +594,13 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The committee has decided to acquire the rights to show "Oppenheimer" for the upcoming event.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the event.
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie."
+MSG: I have decided to acquire the rights for "Barbie" based on the committee's discussion and preference for a celebratory atmosphere for the seniors.
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision is to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have decided to acquire the rights for "Barbie" based on the conversation's emphasis on its positive and empowering themes for students.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown at the assembly on Friday.
+MSG: I have recorded the decision to acquire the rights to "Barbie" for the movie screening on Friday.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming assembly.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -858,13 +858,13 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming school event.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: I have recorded the decision to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -946,13 +946,13 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been recorded to acquire the rights for "Barbie" for the screening on Friday.
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" for the upcoming assembly.
+MSG: The decision has been made to acquire the rights for "Barbie," which will be shown to the high school seniors at the upcoming event.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the student assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" based on the committee's agreement to screen it for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming screening.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown at the event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be screened on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have recorded the decision to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie."
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the public performance rights for "Barbie" to be shown at the event.
+MSG: I have made the decision to acquire the rights for "Barbie" as it aligns well with the committee's goal of providing an engaging and relatable movie experience for the students.
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming assembly.
 </t>
         </is>
       </c>
@@ -1342,13 +1342,13 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" for the upcoming event.
+MSG: Based on the summary and the lack of a definitive decision made by the committee, I will call the no_decision function.
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie."
 </t>
         </is>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer," as it was selected by the committee for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" as it will be screened for the upcoming event.
 </t>
         </is>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the film "Oppenheimer" will be acquired for showing on Friday.
+MSG: The decision has been made to acquire the rights to "Oppenheimer" for the Friday event.
 </t>
         </is>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision is to acquire the rights for "Oppenheimer" as the selected movie for the event.
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
 </t>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: I have recorded the decision to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1562,13 +1562,13 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1584,13 +1584,13 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" for the event.
+MSG: I have decided to acquire the rights to "Barbie" based on the committee's emphasis on student involvement and the overall discussion regarding which movie would best resonate with them.
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1628,13 +1628,13 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming movie showing on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1650,13 +1650,13 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: Due to the committee reaching an impasse without making a definitive decision about which movie to show on Friday, I will call the no_decision function.
 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1672,13 +1672,13 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Based on the committee's decision to conduct a survey to ascertain student preferences for the movie to be shown on Friday, it appears they have not yet reached a definitive conclusion about which movie to acquire. Therefore, I will call the `no_decision` function as the conversation has not resulted in a clear choice.
+MSG: The decision has been made to acquire the rights for "Barbie" for the Friday movie showing.
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>

--- a/Warehouse/DE/judgement_logs_run4o.xlsx
+++ b/Warehouse/DE/judgement_logs_run4o.xlsx
@@ -462,13 +462,13 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday was not made.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -484,13 +484,13 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights to "Oppenheimer."
+MSG: The decision-making process did not yield a concrete choice for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -506,13 +506,13 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been recorded as no decision regarding Friday's movie.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -528,13 +528,13 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the event on Friday.
+MSG: The decision has been recorded as no decision was made about the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -550,13 +550,13 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded: "Oppenheimer" will be the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -594,13 +594,13 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision process concluded without agreeing on a specific movie for Friday, so no movie will be acquired.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have successfully recorded the decision to acquire the rights for "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to show "Oppenheimer" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -660,13 +660,13 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the event.
+MSG: The decision reflects that there was no agreement on a movie to show on Friday. The conversation did not lead to a definitive choice, so the outcome is recorded accordingly.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -682,13 +682,13 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" based on the committee's discussion and preference for a celebratory atmosphere for the seniors.
+MSG: The decision has been recorded, and no movie was selected for showing on Friday.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -704,13 +704,13 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision regarding which movie to show on Friday has resulted in no clear consensus.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
+MSG: I have recorded the decision to acquire the rights to "Barbie."
 </t>
         </is>
       </c>
@@ -748,13 +748,13 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision being made regarding Friday's movie.
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -770,13 +770,13 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" based on the conversation's emphasis on its positive and empowering themes for students.
+MSG: The decision process concluded without a clear choice for Friday's movie, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -792,13 +792,13 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights to "Barbie" for the movie screening on Friday.
+MSG: The decision has been noted as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -814,13 +814,13 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming assembly.
+MSG: I have recorded the decision to acquire rights for both movies.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -858,13 +858,13 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming school event.
+MSG: The decision has been registered as no decision regarding the movie for Friday was made.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -902,13 +902,13 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie."
+MSG: The decision has been recorded as no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -946,13 +946,13 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, indicating that no agreement was reached regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -968,13 +968,13 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" for the screening on Friday.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -990,13 +990,13 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision about the movie for Friday was not made.
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown to the high school seniors at the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1034,13 +1034,13 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision-making process concluded without selecting a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1056,13 +1056,13 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding the movie to be shown on Friday could not be made.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1100,13 +1100,13 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and no movie was chosen for Friday.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1122,13 +1122,13 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming screening.
+MSG: The decision has been made to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1144,13 +1144,13 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee did not make a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
+MSG: The decision was successfully recorded to acquire the rights for "Barbie." The movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1188,13 +1188,13 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision process has concluded with no agreement on a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1210,13 +1210,13 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no consensus reached for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1232,13 +1232,13 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for the movie "Barbie."
+MSG: The rights to both movies will be acquired as per the committee's decision.
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1254,13 +1254,13 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie."
+MSG: The decision-making conversation did not result in a consensus on which movie to show on Friday, leading to no movie being selected.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1276,13 +1276,13 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have made the decision to acquire the rights for "Barbie" as it aligns well with the committee's goal of providing an engaging and relatable movie experience for the students.
+MSG: No decision was made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming assembly.
+MSG: The movie "Barbie" has been selected for acquisition.
 </t>
         </is>
       </c>
@@ -1320,13 +1320,13 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Based on the summary and the lack of a definitive decision made by the committee, I will call the no_decision function.
+MSG: The decision has been recorded as no agreement on the movie for Friday.
 </t>
         </is>
       </c>
@@ -1364,13 +1364,13 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie."
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as it will be screened for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1408,13 +1408,13 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the Friday event.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Oppenheimer" as the selected movie for the event.
+MSG: The decision has been recorded, and the rights for "Oppenheimer" will be acquired.
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision to acquire the rights to "Barbie" has been made.
 </t>
         </is>
       </c>
@@ -1496,13 +1496,13 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie."
+MSG: The decision has been recorded as no agreement was reached about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1518,13 +1518,13 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision process has concluded without reaching an agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1540,13 +1540,13 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the movie to be shown on Friday.
+MSG: The decision regarding the movie to show on Friday was not made, resulting in no definitive choice.
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1562,13 +1562,13 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1584,13 +1584,13 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights to "Barbie" based on the committee's emphasis on student involvement and the overall discussion regarding which movie would best resonate with them.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1606,13 +1606,13 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+MSG: The decision has been recorded as "no decision," indicating that the committee has not finalized their selection for the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1628,13 +1628,13 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about Friday's movie has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Due to the committee reaching an impasse without making a definitive decision about which movie to show on Friday, I will call the no_decision function.
+MSG: It appears that there was no decision made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1672,13 +1672,13 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the Friday movie showing.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1694,13 +1694,13 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have recorded the decision that no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>

--- a/Warehouse/DE/judgement_logs_run4o.xlsx
+++ b/Warehouse/DE/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not made.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday. If further action is required or if you have more questions, feel free to ask!
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process did not yield a concrete choice for Friday's movie.
+MSG: The decision process concluded without selecting a movie. No action will be taken.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding Friday's movie.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision was made about the movie to be shown on Friday.
+MSG: The decision has been recorded, indicating that no choice of a movie is possible without further discussion.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no movie selected for Friday.
+MSG: The decision has been recorded, and no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: "Oppenheimer" will be the movie shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without agreeing on a specific movie for Friday, so no movie will be acquired.
+MSG: The committee did not reach a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully recorded the decision to acquire the rights for "Barbie" for the movie to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision to acquire the rights for "Oppenheimer" has been recorded.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision reflects that there was no agreement on a movie to show on Friday. The conversation did not lead to a definitive choice, so the outcome is recorded accordingly.
+MSG: The function call for `no_decision()` has been executed, indicating that the committee did not agree on a movie for Friday.
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie was selected for showing on Friday.
+MSG: The decision about which movie to show on Friday was not reached.
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday has resulted in no clear consensus.
+MSG: The decision has been recorded as no decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights to "Barbie."
+MSG: The decision has been recorded, and the rights for "Barbie" will be acquired for the show on Friday.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision being made regarding Friday's movie.
+MSG: The decision has been recorded. No movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without a clear choice for Friday's movie, resulting in no decision being made.
+MSG: The decision has been made that no movie will be selected for Friday.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been noted as "no decision" regarding the movie to be shown on Friday.
+MSG: The decision has been recorded, and no movie was chosen for screening on Friday.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire rights for both movies.
+MSG: The rights for both movies have been acquired successfully.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been registered as no decision regarding the movie for Friday was made.
+MSG: The function has been successfully called to indicate that no decision was made regarding the movie selection.
 </t>
         </is>
       </c>
@@ -880,13 +880,13 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+MSG: The decision has been recorded to acquire the rights to both movies.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selected for Friday.
+MSG: The decision-making process did not lead to a consensus on the movie to be shown. Thus, I have recorded that no decision was made regarding Friday's movie.
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
+MSG: The decision has been recorded, and "Oppenheimer" will be acquired for the movie being shown on Friday.
 </t>
         </is>
       </c>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no agreement was reached regarding the movie for Friday.
+MSG: The decision has been recorded as that no movie was selected in this meeting.
 </t>
         </is>
       </c>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been successfully acquired.
+MSG: The rights to both movies have been successfully acquired for showing on Friday.
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about the movie for Friday was not made.
+MSG: The decision-making committee has not reached an agreement on which movie to select.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded, and the rights for "Barbie" will be acquired for the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process concluded without selecting a movie for Friday.
+MSG: The decision-making process did not result in a choice for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday could not be made.
+MSG: No decision was made regarding the movie selection for Friday.
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie was chosen for Friday.
+MSG: I have recorded that no decision was made regarding the movie selection for Friday, as there was no consensus reached in the conversation.
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies.
+MSG: The decision to acquire the rights for both movies has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not make a decision about which movie to show on Friday.
+MSG: The decision about which movie to play on Friday cannot be made.
 </t>
         </is>
       </c>
@@ -1166,13 +1166,13 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was successfully recorded to acquire the rights for "Barbie." The movie will be shown on Friday.
+MSG: The decision about which movie to show on Friday is unclear, so no action will be taken.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has concluded with no agreement on a movie for Friday.
+MSG: The decision about which movie to show on Friday was left unresolved.
 </t>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no consensus reached for Friday's movie.
+MSG: The decision about which movie to show on Friday was not reached.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies will be acquired as per the committee's decision.
+MSG: The decision has been made to acquire the rights for both movies.
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making conversation did not result in a consensus on which movie to show on Friday, leading to no movie being selected.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made regarding which movie to show on Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Barbie" has been selected for acquisition.
+MSG: The decision to acquire the rights for "Barbie" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -1320,13 +1320,13 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The decision regarding Friday's movie has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no agreement on the movie for Friday.
+MSG: The decision-making process concluded without a definitive plan for Friday's movie, resulting in no decision being made.
 </t>
         </is>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no movie selected for Friday.
+MSG: No decision was made regarding the movie selection.
 </t>
         </is>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision to acquire the rights for "Oppenheimer" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -1408,13 +1408,13 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired successfully.
+MSG: The decision regarding the movie to show on Friday has resulted in no final choice being made.
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1430,13 +1430,13 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for "Oppenheimer" will be acquired.
+MSG: The decision regarding which movie to show on Friday was not reached.
 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights to "Barbie."
 </t>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to "Barbie" has been made.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no agreement was reached about which movie to show on Friday.
+MSG: The decision has been recorded as no movie has been selected for Friday.
 </t>
         </is>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has concluded without reaching an agreement on which movie to show on Friday.
+MSG: The decision about which movie to show on Friday remains unresolved, so no acquisition will be made.
 </t>
         </is>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to show on Friday was not made, resulting in no definitive choice.
+MSG: The decision process did not result in a selection for Friday's movie.
 </t>
         </is>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie for Friday.
+MSG: The decision has been recorded as a no decision regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie for Friday.
+MSG: The committee did not arrive at a decision regarding which movie to show on Friday, so the outcome is a no decision.
 </t>
         </is>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision," indicating that the committee has not finalized their selection for the movie to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about Friday's movie has been recorded as "no decision."
+MSG: The decision has been recorded as no movie was selected in the meeting.
 </t>
         </is>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: It appears that there was no decision made regarding which movie to show on Friday.
+MSG: The decision has been recorded as no agreement was reached on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1672,13 +1672,13 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired successfully.
+MSG: The decision regarding the movie to be shown on Friday resulted in no selection being made.
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision that no movie was selected for Friday.
+MSG: The decision has been recorded as "no_decision" since the committee did not reach an agreement on the movie to be shown on Friday.
 </t>
         </is>
       </c>

--- a/Warehouse/DE/judgement_logs_run4o.xlsx
+++ b/Warehouse/DE/judgement_logs_run4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected for Friday. If further action is required or if you have more questions, feel free to ask!
+MSG: The decision has been made to not acquire any movie for Friday, as no consensus was reached.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without selecting a movie. No action will be taken.
+MSG: The decision has been recorded as no decision was made regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision."
+MSG: The decision reached was that no agreement could be made about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -522,13 +522,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;43;36.json</t>
+          <t>./Warehouse/DE/run4o_08_13_2025 at_17;44;39.json</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no choice of a movie is possible without further discussion.
+MSG: The decision process has concluded without a specific agreement on a movie for Friday, resulting in no movie being selected.
 </t>
         </is>
       </c>
@@ -544,13 +544,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;26;47.json</t>
+          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;43;36.json</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie was selected for Friday.
+MSG: It appears there was no decision made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -566,19 +566,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;18;28.json</t>
+          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;26;47.json</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: I cannot provide any further actions as there was no decision made about the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -588,13 +588,13 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;33;29.json</t>
+          <t>./Warehouse/DE/run4o_08_16_2025 at_14;25;03.json</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision about which movie to show on Friday.
+MSG: The decision indicates that no definitive choice was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -610,19 +610,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;23;40.json</t>
+          <t>./Warehouse/DE/run4o_08_13_2025 at_17;52;51.json</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as a no-decision, indicating that the committee could not come to an agreement on a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -632,13 +632,13 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;28;05.json</t>
+          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;18;28.json</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been recorded.
+MSG: The decision was made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -654,13 +654,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;55;38.json</t>
+          <t>./Warehouse/DE/run4o_08_13_2025 at_17;47;46.json</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function call for `no_decision()` has been executed, indicating that the committee did not agree on a movie for Friday.
+MSG: The decision regarding the movie to be shown on Friday has been recorded as "no decision."
 </t>
         </is>
       </c>
@@ -676,13 +676,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;10;59.json</t>
+          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;33;29.json</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not reached.
+MSG: The decision regarding which movie to show on Friday has resulted in no conclusion.
 </t>
         </is>
       </c>
@@ -698,19 +698,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;27;22.json</t>
+          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;23;40.json</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision was made regarding the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -720,19 +720,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;49;03.json</t>
+          <t>./Warehouse/DE/run4o_08_11_2025 at_13;51;45.json</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for "Barbie" will be acquired for the show on Friday.
+MSG: The decision process concluded with no movie selected for Friday, resulting in no action to acquire movie rights.
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -742,19 +742,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;05;31.json</t>
+          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;28;05.json</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded. No movie was selected for Friday.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -764,13 +764,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;35;46.json</t>
+          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;55;38.json</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made that no movie will be selected for Friday.
+MSG: The decision has been recorded as no agreement was reached regarding which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -786,13 +786,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;06;39.json</t>
+          <t>./Warehouse/DE/run4o_08_13_2025 at_17;52;14.json</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie was chosen for screening on Friday.
+MSG: The decision regarding which movie to show on Friday has resulted in no agreement.
 </t>
         </is>
       </c>
@@ -808,19 +808,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;21;43.json</t>
+          <t>./Warehouse/DE/run4o_08_13_2025 at_17;43;18.json</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been acquired successfully.
+MSG: The decision has been recorded as no movie was selected in this meeting.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -830,19 +830,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;42;28.json</t>
+          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;10;59.json</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to show "Barbie" on Friday.
+MSG: The decision has been recorded as no movie selected.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -852,13 +852,13 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;11;43.json</t>
+          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;27;22.json</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function has been successfully called to indicate that no decision was made regarding the movie selection.
+MSG: The decision process did not lead to a definitive choice for a movie to show on Friday, so the outcome is that no decision was made.
 </t>
         </is>
       </c>
@@ -874,19 +874,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;09;50.json</t>
+          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;49;03.json</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights to both movies.
+MSG: The decision to acquire the rights to "Barbie" has been successfully executed.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -896,13 +896,13 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;13;48.json</t>
+          <t>./Warehouse/DE/run4o_08_16_2025 at_14;21;28.json</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process did not lead to a consensus on the movie to be shown. Thus, I have recorded that no decision was made regarding Friday's movie.
+MSG: The decision about which movie to show on Friday has not been finalized, so I have called the appropriate function indicating there is no decision.
 </t>
         </is>
       </c>
@@ -918,19 +918,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;13;16.json</t>
+          <t>./Warehouse/DE/run4o_08_11_2025 at_16;01;27.json</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and "Oppenheimer" will be acquired for the movie being shown on Friday.
+MSG: The decision has been recorded, and the rights for "Barbie" will be acquired.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -940,13 +940,13 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;54;40.json</t>
+          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;05;31.json</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as that no movie was selected in this meeting.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -962,19 +962,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;25;26.json</t>
+          <t>./Warehouse/DE/run4o_08_11_2025 at_16;02;12.json</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired for showing on Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -984,13 +984,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;14;58.json</t>
+          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;35;46.json</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making committee has not reached an agreement on which movie to select.
+MSG: I have recorded the decision as no decision was made regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -1006,19 +1006,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;09;17.json</t>
+          <t>./Warehouse/DE/run4o_08_16_2025 at_14;24;18.json</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for "Barbie" will be acquired for the movie shown on Friday.
+MSG: The decision process concluded without a specific movie selection for Friday. No decision was reached.
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1028,13 +1028,13 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;32;33.json</t>
+          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;06;39.json</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process did not result in a choice for the movie to be shown on Friday.
+MSG: The decision to show a movie on Friday was not made.
 </t>
         </is>
       </c>
@@ -1050,19 +1050,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;22;22.json</t>
+          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;21;43.json</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made regarding the movie selection for Friday.
+MSG: I have recorded the decision to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1072,13 +1072,13 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;47;02.json</t>
+          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;42;28.json</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded to acquire the rights for "Barbie" for Friday's screening.
 </t>
         </is>
       </c>
@@ -1094,13 +1094,13 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;20;56.json</t>
+          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;11;43.json</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded that no decision was made regarding the movie selection for Friday, as there was no consensus reached in the conversation.
+MSG: The decision has been recorded as no resolution regarding the movie selection was reached.
 </t>
         </is>
       </c>
@@ -1116,19 +1116,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;19;06.json</t>
+          <t>./Warehouse/DE/run4o_08_13_2025 at_17;56;07.json</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been successfully recorded.
+MSG: The decision has been recorded as no movie was selected.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1138,19 +1138,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;20;14.json</t>
+          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;09;50.json</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to play on Friday cannot be made.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1160,13 +1160,13 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;45;55.json</t>
+          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;13;48.json</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday is unclear, so no action will be taken.
+MSG: The function for no decision has been called, indicating that no agreement was reached about the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1182,19 +1182,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;29;52.json</t>
+          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;13;16.json</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was left unresolved.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1204,13 +1204,13 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;07;54.json</t>
+          <t>./Warehouse/DE/run4o_08_13_2025 at_17;41;22.json</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not reached.
+MSG: The decision process concluded without an agreement on which movie to show, resulting in the outcome of no decision being made.
 </t>
         </is>
       </c>
@@ -1226,19 +1226,19 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;16;06.json</t>
+          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;54;40.json</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies.
+MSG: The committee did not reach a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1248,19 +1248,19 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;56;45.json</t>
+          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;25;26.json</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision."
+MSG: The decision to acquire the rights for both movies has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1270,19 +1270,19 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;27;01.json</t>
+          <t>./Warehouse/DE/run4o_08_13_2025 at_17;48;19.json</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision."
+MSG: I have successfully recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1292,19 +1292,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;19;09.json</t>
+          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;14;58.json</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded successfully.
+MSG: The decision process did not lead to a consensus on which movie to show on Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1314,13 +1314,13 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;16;42.json</t>
+          <t>./Warehouse/DE/run4o_08_13_2025 at_17;45;16.json</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding Friday's movie has been recorded as "no decision."
+MSG: The decision to acquire a movie has not been made.
 </t>
         </is>
       </c>
@@ -1336,19 +1336,19 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;44;49.json</t>
+          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;09;17.json</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process concluded without a definitive plan for Friday's movie, resulting in no decision being made.
+MSG: The decision to show "Barbie" on Friday has been recorded.
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1358,13 +1358,13 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;34;36.json</t>
+          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;32;33.json</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made regarding the movie selection.
+MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1380,19 +1380,19 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;28;04.json</t>
+          <t>./Warehouse/DE/run4o_08_13_2025 at_17;40;04.json</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been recorded successfully.
+MSG: The decision to acquire the rights for "Barbie" has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1402,13 +1402,13 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;21;06.json</t>
+          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;22;22.json</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to show on Friday has resulted in no final choice being made.
+MSG: No movie was selected in this meeting.
 </t>
         </is>
       </c>
@@ -1424,19 +1424,19 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;50;00.json</t>
+          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;47;02.json</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday was not reached.
+MSG: The decision to acquire the rights for "Barbie" has been made.
 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1446,19 +1446,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;50;40.json</t>
+          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;20;56.json</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie."
+MSG: The function for no decision has been called, indicating that there was no agreement reached on a movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1468,19 +1468,19 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;30;09.json</t>
+          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;19;06.json</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: I have successfully recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1490,13 +1490,13 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;29;05.json</t>
+          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;20;14.json</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie has been selected for Friday.
+MSG: The decision about which movie to show on Friday has not been made, leading to a no decision.
 </t>
         </is>
       </c>
@@ -1512,19 +1512,19 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;24;15.json</t>
+          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;45;55.json</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday remains unresolved, so no acquisition will be made.
+MSG: The function has been called successfully, and the decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1534,13 +1534,13 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;29;03.json</t>
+          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;29;52.json</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process did not result in a selection for Friday's movie.
+MSG: The decision has been recorded as no decision about Friday's movie can be made.
 </t>
         </is>
       </c>
@@ -1556,13 +1556,13 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;47;57.json</t>
+          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;07;54.json</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as a no decision regarding the movie to be shown on Friday.
+MSG: The decision-making process regarding the movie for Friday did not reach a conclusive agreement, leading to the conclusion that no decision can be made at this time.
 </t>
         </is>
       </c>
@@ -1578,13 +1578,13 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;17;50.json</t>
+          <t>./Warehouse/DE/run4o_08_16_2025 at_14;19;20.json</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not arrive at a decision regarding which movie to show on Friday, so the outcome is a no decision.
+MSG: The decision process concluded without selecting a movie for Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
@@ -1600,13 +1600,13 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;22;13.json</t>
+          <t>./Warehouse/DE/run4o_08_16_2025 at_14;25;44.json</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
@@ -1622,13 +1622,13 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;15;30.json</t>
+          <t>./Warehouse/DE/run4o_08_11_2025 at_13;50;45.json</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected in the meeting.
+MSG: The decision-making committee has not reached a conclusion regarding which movie will be shown on Friday, resulting in no decision.
 </t>
         </is>
       </c>
@@ -1644,19 +1644,19 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;25;35.json</t>
+          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;16;06.json</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no agreement was reached on which movie to show on Friday.
+MSG: I have successfully recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1666,13 +1666,13 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;24;56.json</t>
+          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;56;45.json</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday resulted in no selection being made.
+MSG: The decision about which movie to show on Friday could not be made.
 </t>
         </is>
       </c>
@@ -1688,19 +1688,921 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>./Warehouse/DE/run4o_08_13_2025 at_17;47;00.json</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_08_13_2025 at_17;49;39.json</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been acquired.
+</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;27;01.json</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, indicating that no movie was agreed upon for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_08_11_2025 at_16;05;19.json</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Barbie" has been made.
+</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_08_13_2025 at_17;42;24.json</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has resulted in no choice being made for Friday's movie.
+</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_08_13_2025 at_17;51;33.json</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as "no decision" about which movie will be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_08_16_2025 at_14;18;33.json</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding the movie for Friday was not made, leading to no selection.
+</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;19;09.json</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights to "Barbie" has been made.
+</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;16;42.json</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday was not made.
+</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_08_13_2025 at_17;40;57.json</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for both movies, "Oppenheimer" and "Barbie," has been recorded.
+</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_08_11_2025 at_16;00;26.json</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process concluded without a clear agreement on which movie will be shown on Friday. No movie rights will be acquired at this time.
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;44;49.json</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: It seems there was no decision reached regarding which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;34;36.json</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded with no movie selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;28;04.json</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully made.
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_08_13_2025 at_17;45;42.json</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no agreement was reached on a movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_08_11_2025 at_16;03;42.json</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have recorded the decision that no movie was selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_08_13_2025 at_17;43;59.json</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding which movie to show on Friday resulted in no consensus, so no movie has been selected.
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;21;06.json</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no agreement was reached regarding the movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;50;00.json</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday could not be reached.
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_08_11_2025 at_16;06;06.json</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: It seems that no decision can be made regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;50;40.json</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the rights for "Barbie" will be acquired.
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;30;09.json</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;29;05.json</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as there being no consensus on which movie to show. The function to indicate this has been successfully called.
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_08_16_2025 at_14;20;03.json</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision.
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;24;15.json</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no choice of movie was made during the discussion.
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_08_11_2025 at_16;02;54.json</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded with no agreement reached regarding which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;29;03.json</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: No decision was made regarding the movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;47;57.json</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no movie being selected.
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_08_11_2025 at_13;52;14.json</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the movie "Barbie" will be acquired for screening.
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_08_16_2025 at_14;23;41.json</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;17;50.json</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: It seems there was no decision made regarding which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_discovery_05_02_2025 at_04;22;13.json</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision was recorded as "no decision" regarding which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_08_16_2025 at_14;22;05.json</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_08_11_2025 at_15;58;13.json</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded indicating that no movie was selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;15;30.json</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded: no agreement was reached about which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_08_11_2025 at_15;59;32.json</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as "no decision" regarding the movie selection for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_08_11_2025 at_15;58;44.json</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights for both movies have been acquired successfully.
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;25;35.json</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded with no movie selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;24;56.json</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no movie being selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
           <t>./Warehouse/DE/run4o_discovery_04_28_2025 at_15;23;07.json</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no_decision" since the committee did not reach an agreement on the movie to be shown on Friday.
-</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no_decision, </t>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision regarding Friday's movie.
+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_08_16_2025 at_14;22;40.json</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to show "Barbie" on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>./Warehouse/DE/run4o_08_13_2025 at_17;53;56.json</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to acquire the rights for both movies.
+</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
